--- a/HorseRace1.xlsx
+++ b/HorseRace1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="111">
   <si>
     <t>race_distance</t>
   </si>
@@ -359,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -376,6 +376,13 @@
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -391,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -473,11 +480,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -490,6 +517,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1653,10 +1684,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IM112"/>
+  <dimension ref="A1:IM22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1667,42 +1698,73 @@
     <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.453125" style="1" customWidth="1"/>
-    <col min="10" max="247" width="14.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="14.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="247" width="14.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -1722,16 +1784,48 @@
         <v>126</v>
       </c>
       <c r="G2" s="3">
+        <v>121.22</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H13" si="0">G2/K2</f>
+        <v>60.61</v>
+      </c>
+      <c r="I2" s="15">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:J13" si="1">I2/K2</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="13">
+        <v>58472</v>
+      </c>
+      <c r="N2" s="5">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O2" s="5">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P2" s="5">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="R2" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -1751,16 +1845,48 @@
         <v>126</v>
       </c>
       <c r="G3" s="3">
+        <v>121.22</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>60.61</v>
+      </c>
+      <c r="I3" s="15">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="13">
+        <v>58472</v>
+      </c>
+      <c r="N3" s="5">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O3" s="5">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P3" s="5">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
+      <c r="R3" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -1780,16 +1906,48 @@
         <v>126</v>
       </c>
       <c r="G4" s="3">
+        <v>121.15</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>60.575000000000003</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="M4" s="13">
+        <v>238741</v>
+      </c>
+      <c r="N4" s="5">
+        <f>6/15</f>
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="5">
+        <f>3/15</f>
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="5">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="R4" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -1809,16 +1967,47 @@
         <v>126</v>
       </c>
       <c r="G5" s="3">
+        <v>110.51</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>55.255000000000003</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2</v>
+      </c>
+      <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="13">
+        <v>9777</v>
+      </c>
+      <c r="N5" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="R5" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -1838,16 +2027,48 @@
         <v>126</v>
       </c>
       <c r="G6" s="3">
+        <v>98.87</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>49.435000000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="13">
+        <v>81189</v>
+      </c>
+      <c r="N6" s="5">
+        <f>3/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O6" s="5">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="P6" s="5">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="R6" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -1867,16 +2088,47 @@
         <v>126</v>
       </c>
       <c r="G7" s="3">
+        <v>258.81</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>51.762</v>
+      </c>
+      <c r="I7" s="3">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="K7" s="14">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="M7" s="13">
+        <v>46025</v>
+      </c>
+      <c r="N7" s="5">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="O7" s="5">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3">
+      <c r="R7" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10</v>
       </c>
@@ -1896,16 +2148,48 @@
         <v>126</v>
       </c>
       <c r="G8" s="3">
+        <v>160.77000000000001</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>53.59</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K8" s="14">
         <v>3</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="13">
+        <v>134193</v>
+      </c>
+      <c r="N8" s="5">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="5">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P8" s="5">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="3">
+      <c r="R8" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -1925,16 +2209,47 @@
         <v>126</v>
       </c>
       <c r="G9" s="3">
+        <v>219.46</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>54.865000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>18</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K9" s="14">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="13">
+        <v>158333</v>
+      </c>
+      <c r="N9" s="5">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="R9" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -1954,16 +2269,48 @@
         <v>126</v>
       </c>
       <c r="G10" s="3">
+        <v>296.18</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>59.236000000000004</v>
+      </c>
+      <c r="I10" s="3">
+        <v>24</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="K10" s="14">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="13">
+        <v>47145</v>
+      </c>
+      <c r="N10" s="5">
+        <f>3/11</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="O10" s="5">
+        <f>5/11</f>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="P10" s="5">
+        <f>1/11</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="R10" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1983,16 +2330,48 @@
         <v>126</v>
       </c>
       <c r="G11" s="3">
+        <v>322.22000000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>53.70333333333334</v>
+      </c>
+      <c r="I11" s="3">
+        <v>30</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K11" s="14">
+        <v>6</v>
+      </c>
+      <c r="L11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="3">
+      <c r="M11" s="13">
+        <v>40083</v>
+      </c>
+      <c r="N11" s="5">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O11" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P11" s="5">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="R11" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2012,16 +2391,48 @@
         <v>126</v>
       </c>
       <c r="G12" s="3">
+        <v>324.39999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>54.066666666666663</v>
+      </c>
+      <c r="I12" s="3">
+        <v>26</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="K12" s="14">
+        <v>6</v>
+      </c>
+      <c r="L12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
+      <c r="M12" s="13">
+        <v>157330</v>
+      </c>
+      <c r="N12" s="5">
+        <f>5/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="5">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="5">
+        <f>2/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="R12" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2041,16 +2452,47 @@
         <v>126</v>
       </c>
       <c r="G13" s="3">
+        <v>165.4</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>55.133333333333333</v>
+      </c>
+      <c r="I13" s="3">
+        <v>14</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K13" s="14">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="13">
+        <v>112683</v>
+      </c>
+      <c r="N13" s="5">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="5">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="R13" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2070,16 +2512,47 @@
         <v>126</v>
       </c>
       <c r="G14" s="3">
+        <v>276.39999999999998</v>
+      </c>
+      <c r="H14" s="3">
+        <f>G14/K14</f>
+        <v>55.279999999999994</v>
+      </c>
+      <c r="I14" s="3">
+        <v>25</v>
+      </c>
+      <c r="J14" s="5">
+        <f>I14/K14</f>
+        <v>5</v>
+      </c>
+      <c r="K14" s="14">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="13">
+        <v>156920</v>
+      </c>
+      <c r="N14" s="5">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="R14" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2088,8 +2561,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2098,6 +2572,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -2108,6 +2583,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -2118,6 +2594,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -2128,6 +2605,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -2138,6 +2616,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -2160,996 +2639,6 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
